--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82A1E6-E1A0-4A3F-ACC6-F5DF531E4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E33AE-D78D-430A-99D0-4979F9E27116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="852" windowWidth="17700" windowHeight="11244" tabRatio="824" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="1335" windowWidth="17700" windowHeight="11250" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="208">
   <si>
     <t>AssnType</t>
   </si>
@@ -370,12 +370,6 @@
     <t>Extra Depal</t>
   </si>
   <si>
-    <t>#5 saw</t>
-  </si>
-  <si>
-    <t>#6 saw</t>
-  </si>
-  <si>
     <t>Soaker Infeed</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>D Piskun Sat</t>
   </si>
   <si>
-    <t>LC1 Can Packer 1</t>
-  </si>
-  <si>
     <t>S Mackie Sat</t>
   </si>
   <si>
@@ -584,6 +575,198 @@
   </si>
   <si>
     <t>Pouch Packer</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>EXAMPLE ASSIGNMENT: This will force ee 1234567 in from 11p Fri to 7a Sat</t>
+  </si>
+  <si>
+    <t>EXAMPLE ASSIGNMENT: This will prevent ee 1234567 from being assigned to any job Sun3a-7a. A constraint like this can be used when someone said yes to a shift but wanted only 4 hours and got 8</t>
+  </si>
+  <si>
+    <t>EXAMPLE ASSIGNMENT: This will ensure ee 1234567 is assigned PFT 7a-7p Sat. The rest of the schedule will be built around this. Job name must be specified for a voluntary assignment</t>
+  </si>
+  <si>
+    <t>Lindsay Sun</t>
+  </si>
+  <si>
+    <t>M Elabed Sun</t>
+  </si>
+  <si>
+    <t>M Henry Sun</t>
+  </si>
+  <si>
+    <t>J Paterson Sun</t>
+  </si>
+  <si>
+    <t>T Vouvalidis Sun</t>
+  </si>
+  <si>
+    <t>J Sit Sun</t>
+  </si>
+  <si>
+    <t>C McIntyre Sun</t>
+  </si>
+  <si>
+    <t>C McGill Sun</t>
+  </si>
+  <si>
+    <t>P LaFleur Sun</t>
+  </si>
+  <si>
+    <t>D McCart Sun</t>
+  </si>
+  <si>
+    <t>C Deyle Sun</t>
+  </si>
+  <si>
+    <t>R Smith Sun</t>
+  </si>
+  <si>
+    <t>S Simon Sun</t>
+  </si>
+  <si>
+    <t>K Hlodan Sun</t>
+  </si>
+  <si>
+    <t>D Piskun Sun</t>
+  </si>
+  <si>
+    <t>S Mackie Sun</t>
+  </si>
+  <si>
+    <t>B Humphrey Sun</t>
+  </si>
+  <si>
+    <t>D Morais Sun</t>
+  </si>
+  <si>
+    <t>A Mann Sun</t>
+  </si>
+  <si>
+    <t>A GoldBurn Sun</t>
+  </si>
+  <si>
+    <t>A Forrest Sun</t>
+  </si>
+  <si>
+    <t>S Giannopoulos Sat</t>
+  </si>
+  <si>
+    <t>J Schuster Sat</t>
+  </si>
+  <si>
+    <t>H Beggs Shreve Sat</t>
+  </si>
+  <si>
+    <t>B Christodoulou Sat</t>
+  </si>
+  <si>
+    <t>S Tye Sat</t>
+  </si>
+  <si>
+    <t>TK Hasebenebi Sat</t>
+  </si>
+  <si>
+    <t>N Hawke Sat</t>
+  </si>
+  <si>
+    <t>R Gonsalves Sat</t>
+  </si>
+  <si>
+    <t>P McMillan Sat</t>
+  </si>
+  <si>
+    <t>N Ivanovich Sat</t>
+  </si>
+  <si>
+    <t>C McKenzie Sat</t>
+  </si>
+  <si>
+    <t>B Lumley Sat</t>
+  </si>
+  <si>
+    <t>N Udoma Sat</t>
+  </si>
+  <si>
+    <t>D Seliske Sat</t>
+  </si>
+  <si>
+    <t>P DeRoo Sat</t>
+  </si>
+  <si>
+    <t>L Vanden Houvel Sat</t>
+  </si>
+  <si>
+    <t>D McKenzie Sat</t>
+  </si>
+  <si>
+    <t>B Keating Sat</t>
+  </si>
+  <si>
+    <t>D LaFleur Sat</t>
+  </si>
+  <si>
+    <t>S Giannopoulos Sun</t>
+  </si>
+  <si>
+    <t>J Schuster Sun</t>
+  </si>
+  <si>
+    <t>H Beggs Shreve Sun</t>
+  </si>
+  <si>
+    <t>B Christodoulou Sun</t>
+  </si>
+  <si>
+    <t>S Tye Sun</t>
+  </si>
+  <si>
+    <t>TK Hasebenebi Sun</t>
+  </si>
+  <si>
+    <t>N Hawke Sun</t>
+  </si>
+  <si>
+    <t>R Gonsalves Sun</t>
+  </si>
+  <si>
+    <t>P McMillan Sun</t>
+  </si>
+  <si>
+    <t>N Ivanovich Sun</t>
+  </si>
+  <si>
+    <t>B Lumley Sun</t>
+  </si>
+  <si>
+    <t>C McKenzie Sun</t>
+  </si>
+  <si>
+    <t>N Udoma Sun</t>
+  </si>
+  <si>
+    <t>D Seliske Sun</t>
+  </si>
+  <si>
+    <t>P DeRoo Sun</t>
+  </si>
+  <si>
+    <t>L Vanden Houvel Sun</t>
+  </si>
+  <si>
+    <t>B Keating Sun</t>
+  </si>
+  <si>
+    <t>D LaFleur Sun</t>
+  </si>
+  <si>
+    <t>D McKenzie Sun</t>
   </si>
 </sst>
 </file>
@@ -676,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,6 +887,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,8 +1533,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}" name="Assn_List" displayName="Assn_List" ref="A1:I24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:I24" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}" name="Assn_List" displayName="Assn_List" ref="A1:I86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:I86" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF1A4BE0-533F-4D33-902B-4B0793170CE5}" name="Active?" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{BD0C2663-572B-49CB-B47A-8EBC47F49069}" name="AssnType" dataDxfId="10"/>
@@ -1658,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,10 +1860,10 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>22</v>
@@ -1696,27 +1880,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+        <v>Mon / 7p-11p</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1737,11 +1918,8 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1774,7 +1952,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1796,7 +1974,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1818,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1840,7 +2018,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1906,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1928,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1950,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1972,7 +2150,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1994,7 +2172,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2016,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2038,7 +2216,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2060,7 +2238,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2081,8 +2259,8 @@
       <c r="B19">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
+      <c r="C19" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2103,8 +2281,8 @@
       <c r="B20">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>88</v>
+      <c r="C20" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2126,7 +2304,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2148,7 +2326,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2170,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2191,8 +2369,8 @@
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>133</v>
+      <c r="C24" t="s">
+        <v>126</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2202,8 +2380,11 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,7 +2395,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2236,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2258,7 +2439,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2280,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2302,7 +2483,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2318,24 +2499,27 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+        <v>Sun / 7a-11a</v>
       </c>
       <c r="E30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2349,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,10 +2546,10 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" customWidth="1"/>
+    <col min="9" max="9" width="80.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2379,13 +2563,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -2399,87 +2583,93 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1234567</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G2" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C2,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C2,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D2,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D2,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 7p-11p</v>
+        <v>Sat / 3a-7a</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1234567</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C3,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C3,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 11p(Sun)-3a(Mon)</v>
+        <v>Sat / 7a-11a</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D3,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D3,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
+        <v>Sat / 3p-7p</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>7402632</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>1234567</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C4,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C4,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11p(Fri)-3a(Sat)</v>
+        <v>Sun / 3a-7a</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D4,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D4,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 7a-11a</v>
+        <v>Sun / 3a-7a</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2487,30 +2677,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7400336</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C5,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C5,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11p(Fri)-3a(Sat)</v>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D5,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D5,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 7a-11a</v>
+        <v>Fri / 7p-11p</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2518,30 +2704,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7104444</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C6,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C6,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11p(Fri)-3a(Sat)</v>
+        <v>Mon / 11p(Sun)-3a(Mon)</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D6,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D6,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 7a-11a</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>96</v>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2557,11 +2739,11 @@
       <c r="D7" s="2">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
-        <v>7401166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>76</v>
+      <c r="E7" s="2">
+        <v>7402632</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C7,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C7,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2571,8 +2753,8 @@
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D7,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D7,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7a-11a</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>98</v>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2588,11 +2770,11 @@
       <c r="D8" s="2">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>7096593</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>77</v>
+      <c r="E8" s="2">
+        <v>7400336</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C8,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C8,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2602,8 +2784,8 @@
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D8,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D8,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7a-11a</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>99</v>
+      <c r="I8" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2620,10 +2802,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>7095864</v>
+        <v>7104444</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2634,7 +2816,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2651,10 +2833,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="7">
-        <v>7097996</v>
+        <v>7401166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2665,7 +2847,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2682,21 +2864,21 @@
         <v>9</v>
       </c>
       <c r="E11" s="7">
-        <v>7093500</v>
+        <v>7096593</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7" t="str">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C11,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C11,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 11p(Fri)-3a(Sat)</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D11,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D11,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2713,21 +2895,21 @@
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <v>7400330</v>
+        <v>7095864</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="7" t="str">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C12,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C12,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 11p(Fri)-3a(Sat)</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D12,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D12,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2744,21 +2926,21 @@
         <v>9</v>
       </c>
       <c r="E13" s="7">
-        <v>7096286</v>
+        <v>7097996</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="str">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C13,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C13,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 11p(Fri)-3a(Sat)</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D13,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D13,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2775,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="7">
-        <v>7401878</v>
+        <v>7093500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C14,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C14,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2789,7 +2971,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2806,10 +2988,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="7">
-        <v>7095136</v>
+        <v>7400330</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C15,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C15,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2820,7 +3002,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2837,10 +3019,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="7">
-        <v>7094183</v>
+        <v>7096286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C16,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C16,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2851,7 +3033,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2868,10 +3050,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="7">
-        <v>7077415</v>
+        <v>7401878</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C17,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C17,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2882,7 +3064,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2899,10 +3081,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>7090966</v>
+        <v>7095136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C18,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C18,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2913,7 +3095,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2929,11 +3111,11 @@
       <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E19" s="8">
-        <v>7403058</v>
+      <c r="E19" s="7">
+        <v>7094183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C19,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C19,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2944,7 +3126,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2961,10 +3143,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="7">
-        <v>7077878</v>
+        <v>7077415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C20,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C20,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2975,7 +3157,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2992,10 +3174,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="7">
-        <v>7099948</v>
+        <v>7090966</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C21,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C21,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3006,7 +3188,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3022,11 +3204,11 @@
       <c r="D22" s="2">
         <v>9</v>
       </c>
-      <c r="E22" s="7">
-        <v>7403656</v>
+      <c r="E22" s="8">
+        <v>7403058</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3037,7 +3219,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3054,10 +3236,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="7">
-        <v>7104560</v>
+        <v>7077878</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C23,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C23,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3068,7 +3250,7 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3085,10 +3267,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="7">
-        <v>7403267</v>
+        <v>7099948</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C24,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C24,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3099,20 +3281,1937 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33">
-        <f>+F34</f>
-        <v>0</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7403656</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C25,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C25,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D25,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D25,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7a-11a</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>7104560</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C26,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C26,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D26,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D26,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7a-11a</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7403267</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C27,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C27,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D27,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D27,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7a-11a</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7402632</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C28,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C28,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D28,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D28,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7400336</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C29,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C29,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D29,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D29,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7">
+        <v>7104444</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D30,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D30,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="E31" s="7">
+        <v>7401166</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D31,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D31,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7">
+        <v>7096593</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D32,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D32,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7">
+        <v>7095864</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D33,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D33,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7">
+        <v>7097996</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D34,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D34,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>15</v>
+      </c>
+      <c r="E35" s="7">
+        <v>7093500</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D35,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D35,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>15</v>
+      </c>
+      <c r="E36" s="7">
+        <v>7400330</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D36,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D36,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7">
+        <v>7096286</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D37,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D37,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7">
+        <v>7401878</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D38,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D38,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7">
+        <v>7095136</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D39,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D39,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7">
+        <v>7094183</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D40,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D40,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7">
+        <v>7077415</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D41,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D41,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
+        <v>15</v>
+      </c>
+      <c r="E42" s="7">
+        <v>7090966</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D42,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D42,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13">
+        <v>7403058</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D43,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D43,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+      <c r="E44" s="7">
+        <v>7077878</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D44,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D44,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
+        <v>15</v>
+      </c>
+      <c r="E45" s="7">
+        <v>7099948</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D45,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D45,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>15</v>
+      </c>
+      <c r="E46" s="7">
+        <v>7403656</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D46,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D46,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7">
+        <v>7104560</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D47,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D47,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>15</v>
+      </c>
+      <c r="E48" s="7">
+        <v>7403267</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D48,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D48,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7403368</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C49,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C49,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D49,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D49,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7403455</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C50,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C50,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D50,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D50,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7">
+        <v>7104178</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D51,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D51,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <v>12</v>
+      </c>
+      <c r="E52" s="7">
+        <v>7096844</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D52,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D52,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7">
+        <v>7401165</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D53,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D53,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7">
+        <v>7401949</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D54,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D54,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7">
+        <v>7401950</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D55,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D55,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7">
+        <v>7095749</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D56,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D56,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>7091824</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C57,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C57,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D57,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D57,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2">
+        <v>12</v>
+      </c>
+      <c r="E58" s="7">
+        <v>7402915</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D58,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D58,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7">
+        <v>7051907</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D59,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D59,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2">
+        <v>12</v>
+      </c>
+      <c r="E60" s="7">
+        <v>7400976</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D60,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D60,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7">
+        <v>7400954</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D61,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D61,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7051890</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D62,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D62,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2">
+        <v>12</v>
+      </c>
+      <c r="E63" s="7">
+        <v>7051891</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D63,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D63,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2">
+        <v>12</v>
+      </c>
+      <c r="E64" s="13">
+        <v>7403004</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D64,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D64,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2">
+        <v>12</v>
+      </c>
+      <c r="E65" s="7">
+        <v>7095152</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H65" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D65,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D65,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>12</v>
+      </c>
+      <c r="E66" s="7">
+        <v>7095156</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H66" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D66,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D66,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>12</v>
+      </c>
+      <c r="E67" s="7">
+        <v>7051891</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H67" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D67,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D67,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2">
+        <v>7403368</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H68" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2">
+        <v>7403455</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
+        <v>15</v>
+      </c>
+      <c r="E70" s="7">
+        <v>7104178</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H70" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
+        <v>15</v>
+      </c>
+      <c r="E71" s="7">
+        <v>7096844</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H71" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2">
+        <v>15</v>
+      </c>
+      <c r="E72" s="7">
+        <v>7401165</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H72" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>15</v>
+      </c>
+      <c r="E73" s="7">
+        <v>7401949</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H73" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2">
+        <v>15</v>
+      </c>
+      <c r="E74" s="7">
+        <v>7401950</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2">
+        <v>15</v>
+      </c>
+      <c r="E75" s="7">
+        <v>7095749</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H75" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2">
+        <v>15</v>
+      </c>
+      <c r="E76" s="7">
+        <v>7091824</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H76" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2">
+        <v>15</v>
+      </c>
+      <c r="E77" s="7">
+        <v>7402915</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H77" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7">
+        <v>7051907</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H78" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
+        <v>15</v>
+      </c>
+      <c r="E79" s="7">
+        <v>7400976</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H79" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2">
+        <v>15</v>
+      </c>
+      <c r="E80" s="7">
+        <v>7400954</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H80" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2">
+        <v>15</v>
+      </c>
+      <c r="E81" s="7">
+        <v>7051890</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H81" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2">
+        <v>15</v>
+      </c>
+      <c r="E82" s="7">
+        <v>7051891</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H82" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2">
+        <v>15</v>
+      </c>
+      <c r="E83" s="13">
+        <v>7403004</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G83" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H83" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2">
+        <v>15</v>
+      </c>
+      <c r="E84" s="7">
+        <v>7095152</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H84" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2">
+        <v>15</v>
+      </c>
+      <c r="E85" s="7">
+        <v>7095156</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H85" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2">
+        <v>15</v>
+      </c>
+      <c r="E86" s="7">
+        <v>7051891</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G86" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H86" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3122,7 +5221,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,13 +5517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27494956-B098-494C-8CA2-BB2D03266D8E}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3468,7 +5567,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>32</v>
@@ -3478,7 +5577,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>32</v>
@@ -3488,7 +5587,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>32</v>
@@ -3498,7 +5597,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>48</v>
@@ -3508,7 +5607,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>34</v>
@@ -3528,7 +5627,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>32</v>
@@ -3538,7 +5637,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>35</v>
@@ -3548,7 +5647,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>36</v>
@@ -3558,7 +5657,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>37</v>
@@ -3568,7 +5667,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -3578,7 +5677,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -3588,7 +5687,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>39</v>
@@ -3608,7 +5707,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>41</v>
@@ -3618,7 +5717,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>42</v>
@@ -3638,7 +5737,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>44</v>
@@ -3648,7 +5747,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>45</v>
@@ -3658,7 +5757,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>46</v>
@@ -3668,7 +5767,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>46</v>
@@ -3678,7 +5777,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>47</v>
@@ -3688,7 +5787,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>41</v>
@@ -3708,7 +5807,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>50</v>
@@ -3718,7 +5817,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>51</v>
@@ -3738,7 +5837,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>53</v>
@@ -3748,7 +5847,7 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>54</v>
@@ -3758,7 +5857,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>55</v>
@@ -3768,7 +5867,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>56</v>
@@ -3778,7 +5877,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>57</v>
@@ -3788,7 +5887,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -3798,7 +5897,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -3818,7 +5917,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>60</v>
@@ -3828,7 +5927,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>61</v>
@@ -3838,7 +5937,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>62</v>
@@ -3848,7 +5947,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>63</v>
@@ -3858,7 +5957,7 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>64</v>
@@ -3868,7 +5967,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>64</v>
@@ -3878,7 +5977,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>65</v>
@@ -3888,7 +5987,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>65</v>
@@ -3936,7 +6035,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>69</v>
@@ -3944,7 +6043,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>70</v>
@@ -3952,7 +6051,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>71</v>
@@ -3960,7 +6059,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>72</v>
@@ -3968,7 +6067,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>73</v>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E33AE-D78D-430A-99D0-4979F9E27116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0496E7C0-4F5C-4537-ACA6-E68184479EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="1335" windowWidth="17700" windowHeight="11250" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="2265" windowWidth="21825" windowHeight="12465" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4506,7 +4506,7 @@
       <c r="D64" s="2">
         <v>12</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="7">
         <v>7403004</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -4600,7 +4600,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="7">
-        <v>7051891</v>
+        <v>7051908</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>119</v>
@@ -4625,10 +4625,10 @@
         <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2">
         <v>7403368</v>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="G68" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H68" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>189</v>
@@ -4656,10 +4656,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E69" s="2">
         <v>7403455</v>
@@ -4669,11 +4669,11 @@
       </c>
       <c r="G69" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H69" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>190</v>
@@ -4687,10 +4687,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E70" s="7">
         <v>7104178</v>
@@ -4700,11 +4700,11 @@
       </c>
       <c r="G70" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H70" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>191</v>
@@ -4718,10 +4718,10 @@
         <v>4</v>
       </c>
       <c r="C71" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E71" s="7">
         <v>7096844</v>
@@ -4731,11 +4731,11 @@
       </c>
       <c r="G71" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H71" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>192</v>
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E72" s="7">
         <v>7401165</v>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="G72" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H72" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>193</v>
@@ -4780,10 +4780,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E73" s="7">
         <v>7401949</v>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="G73" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H73" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>194</v>
@@ -4811,10 +4811,10 @@
         <v>4</v>
       </c>
       <c r="C74" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E74" s="7">
         <v>7401950</v>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="G74" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H74" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>195</v>
@@ -4842,10 +4842,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E75" s="7">
         <v>7095749</v>
@@ -4855,11 +4855,11 @@
       </c>
       <c r="G75" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H75" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>196</v>
@@ -4873,10 +4873,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E76" s="7">
         <v>7091824</v>
@@ -4886,11 +4886,11 @@
       </c>
       <c r="G76" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H76" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>197</v>
@@ -4904,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="C77" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E77" s="7">
         <v>7402915</v>
@@ -4917,11 +4917,11 @@
       </c>
       <c r="G77" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H77" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>198</v>
@@ -4935,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="C78" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E78" s="7">
         <v>7051907</v>
@@ -4948,11 +4948,11 @@
       </c>
       <c r="G78" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H78" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>199</v>
@@ -4966,10 +4966,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E79" s="7">
         <v>7400976</v>
@@ -4979,11 +4979,11 @@
       </c>
       <c r="G79" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H79" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>200</v>
@@ -4997,10 +4997,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E80" s="7">
         <v>7400954</v>
@@ -5010,11 +5010,11 @@
       </c>
       <c r="G80" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H80" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>201</v>
@@ -5028,10 +5028,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E81" s="7">
         <v>7051890</v>
@@ -5041,11 +5041,11 @@
       </c>
       <c r="G81" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H81" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>202</v>
@@ -5059,10 +5059,10 @@
         <v>4</v>
       </c>
       <c r="C82" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E82" s="7">
         <v>7051891</v>
@@ -5072,11 +5072,11 @@
       </c>
       <c r="G82" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H82" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>203</v>
@@ -5090,10 +5090,10 @@
         <v>4</v>
       </c>
       <c r="C83" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E83" s="13">
         <v>7403004</v>
@@ -5103,11 +5103,11 @@
       </c>
       <c r="G83" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H83" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>204</v>
@@ -5121,10 +5121,10 @@
         <v>4</v>
       </c>
       <c r="C84" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E84" s="7">
         <v>7095152</v>
@@ -5134,11 +5134,11 @@
       </c>
       <c r="G84" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H84" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>205</v>
@@ -5152,10 +5152,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E85" s="7">
         <v>7095156</v>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="G85" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H85" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>206</v>
@@ -5183,24 +5183,24 @@
         <v>4</v>
       </c>
       <c r="C86" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E86" s="7">
-        <v>7051891</v>
+        <v>7051908</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G86" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
+        <v>Sun / 11a-3p</v>
       </c>
       <c r="H86" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Sun / 7p-11p</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>207</v>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0496E7C0-4F5C-4537-ACA6-E68184479EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B21FBD2-0A2D-4E1A-A749-84D6B9FD57ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33360" yWindow="2265" windowWidth="21825" windowHeight="12465" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29145" yWindow="1560" windowWidth="23790" windowHeight="14085" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
   <si>
     <t>AssnType</t>
   </si>
@@ -1513,8 +1513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G30" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CC27B11-A292-426B-97B6-7130C8C9D4F3}" name="Start Slot"/>
     <tableColumn id="2" xr3:uid="{8A152051-0D61-47D6-BFEC-594E995E4F1D}" name="End Slot"/>
@@ -1840,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,22 +1880,23 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
+        <v>82</v>
+      </c>
+      <c r="D2" s="9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E2" t="str">
+        <v>Sat / 3a-7a</v>
+      </c>
+      <c r="E2" s="9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Sun / 3a-7a</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2">
         <v>1</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1919,7 +1920,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1930,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1941,7 +1942,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1952,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1963,7 +1964,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1974,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1985,7 +1986,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1996,7 +1997,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2007,7 +2008,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2018,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2029,7 +2030,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2040,7 +2041,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2051,7 +2052,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,7 +2063,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2073,7 +2074,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2084,7 +2085,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2095,7 +2096,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2106,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2117,7 +2118,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2139,7 +2140,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2150,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2161,7 +2162,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2172,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2183,7 +2184,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2194,7 +2195,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2205,7 +2206,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2216,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2227,7 +2228,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2238,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2249,7 +2250,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2259,8 +2260,8 @@
       <c r="B19">
         <v>24</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>107</v>
+      <c r="C19" t="s">
+        <v>86</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2271,7 +2272,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2282,7 +2283,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2293,7 +2294,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2304,7 +2305,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2315,7 +2316,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2326,7 +2327,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2337,7 +2338,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,7 +2349,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2359,7 +2360,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2369,8 +2370,8 @@
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>126</v>
+      <c r="C24" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2380,9 +2381,6 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -2394,8 +2392,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>119</v>
+      <c r="C25" t="s">
+        <v>126</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2405,8 +2403,11 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2417,7 +2418,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2428,7 +2429,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,7 +2440,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2450,7 +2451,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2461,7 +2462,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2472,7 +2473,7 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2483,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2494,31 +2495,53 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
       </c>
       <c r="E30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="E31" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11a-3p</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
@@ -2535,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2549,7 +2572,7 @@
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="80.109375" customWidth="1"/>
+    <col min="9" max="9" width="103.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2674,7 +2697,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -2701,7 +2724,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -2728,7 +2751,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -2759,7 +2782,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2790,7 +2813,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -2821,7 +2844,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -2852,7 +2875,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -2883,7 +2906,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -2914,7 +2937,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -2945,7 +2968,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -2976,7 +2999,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -3007,7 +3030,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -3038,7 +3061,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -3069,7 +3092,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -3100,7 +3123,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -3131,7 +3154,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -3162,7 +3185,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -3193,7 +3216,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -3224,7 +3247,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -3255,7 +3278,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -3286,7 +3309,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -3317,7 +3340,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -3348,7 +3371,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -3379,7 +3402,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -3410,7 +3433,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -3441,7 +3464,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -3472,7 +3495,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -3503,7 +3526,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -3534,7 +3557,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -3565,7 +3588,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -3596,7 +3619,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -3627,7 +3650,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -3658,7 +3681,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -3689,7 +3712,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -3720,7 +3743,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -3751,7 +3774,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -3782,7 +3805,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -3813,7 +3836,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -3844,7 +3867,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -3875,7 +3898,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -3906,7 +3929,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -3937,7 +3960,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -3968,7 +3991,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
@@ -3999,7 +4022,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -4030,7 +4053,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -4061,7 +4084,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -4092,7 +4115,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
@@ -4123,7 +4146,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -4154,7 +4177,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
@@ -4185,7 +4208,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
@@ -4216,7 +4239,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
@@ -4247,7 +4270,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -4278,7 +4301,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4</v>
@@ -4309,7 +4332,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
@@ -4340,7 +4363,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
@@ -4371,7 +4394,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
@@ -4402,7 +4425,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -4433,7 +4456,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -4464,7 +4487,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -4495,7 +4518,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
@@ -4526,7 +4549,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
@@ -4557,7 +4580,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
@@ -4588,7 +4611,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
@@ -4619,7 +4642,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -4650,7 +4673,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
@@ -4681,7 +4704,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
@@ -4712,7 +4735,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
@@ -4743,7 +4766,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -4774,7 +4797,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -4805,7 +4828,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -4836,7 +4859,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
@@ -4867,7 +4890,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -4898,7 +4921,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
@@ -4929,7 +4952,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -4960,7 +4983,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4</v>
@@ -4991,7 +5014,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
@@ -5022,7 +5045,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4</v>
@@ -5053,7 +5076,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>4</v>
@@ -5084,7 +5107,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4</v>
@@ -5115,7 +5138,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
@@ -5146,7 +5169,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -5177,7 +5200,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4</v>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B21FBD2-0A2D-4E1A-A749-84D6B9FD57ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CDAB8-1307-4053-8CB6-871283293D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="1560" windowWidth="23790" windowHeight="14085" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="90" windowWidth="17970" windowHeight="14085" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="208">
   <si>
     <t>AssnType</t>
   </si>
@@ -1513,8 +1513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CC27B11-A292-426B-97B6-7130C8C9D4F3}" name="Start Slot"/>
     <tableColumn id="2" xr3:uid="{8A152051-0D61-47D6-BFEC-594E995E4F1D}" name="End Slot"/>
@@ -1840,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,29 +1898,30 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sat / 3a-7a</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="str">
-        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E3" t="str">
-        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,7 +1932,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1953,7 +1954,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1975,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1997,7 +1998,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2019,7 +2020,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2041,7 +2042,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2063,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2085,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2107,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2129,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2151,7 +2152,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2173,7 +2174,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2195,7 +2196,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2217,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2239,7 +2240,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2261,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2282,8 +2283,8 @@
       <c r="B20">
         <v>24</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>107</v>
+      <c r="C20" t="s">
+        <v>86</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2305,7 +2306,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2327,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2349,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2371,7 +2372,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2392,8 +2393,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>126</v>
+      <c r="C25" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2403,9 +2404,6 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -2417,8 +2415,8 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>119</v>
+      <c r="C26" t="s">
+        <v>126</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2428,6 +2426,9 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2462,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2484,7 +2485,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2506,7 +2507,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2522,26 +2523,48 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7a-11a</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11a-3p</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>125</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2582,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CDAB8-1307-4053-8CB6-871283293D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8162BF-52BE-42E8-AF09-62ED45CD95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="90" windowWidth="17970" windowHeight="14085" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
   <si>
     <t>AssnType</t>
   </si>
@@ -1513,8 +1513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CC27B11-A292-426B-97B6-7130C8C9D4F3}" name="Start Slot"/>
     <tableColumn id="2" xr3:uid="{8A152051-0D61-47D6-BFEC-594E995E4F1D}" name="End Slot"/>
@@ -1840,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,30 +1898,29 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11p(Fri)-3a(Sat)</v>
-      </c>
-      <c r="E3" s="9" t="str">
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E3" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 3a-7a</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>Mon / 7p-11p</v>
+      </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1932,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1954,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1976,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1998,7 +1997,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2020,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2042,7 +2041,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2064,7 +2063,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2086,7 +2085,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2108,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2130,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2152,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2174,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2196,7 +2195,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2218,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2240,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2262,7 +2261,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2283,8 +2282,8 @@
       <c r="B20">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="C20" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2306,7 +2305,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2328,7 +2327,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2350,7 +2349,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2372,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2393,8 +2392,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>106</v>
+      <c r="C25" t="s">
+        <v>126</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2404,6 +2403,9 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -2415,8 +2417,8 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>126</v>
+      <c r="C26" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2426,9 +2428,6 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
-      <c r="F26" t="s">
-        <v>127</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2463,7 +2462,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2485,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2507,7 +2506,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2523,48 +2522,26 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>24</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+        <v>Sun / 7a-11a</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" t="str">
-        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
-      </c>
-      <c r="E32" t="str">
-        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32">
         <v>0</v>
       </c>
     </row>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8162BF-52BE-42E8-AF09-62ED45CD95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD5FB2-D27E-4E62-9BDB-DC3C0C6B08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
   <si>
     <t>AssnType</t>
   </si>
@@ -322,9 +323,6 @@
     <t>LC1 CAN UTILITY</t>
   </si>
   <si>
-    <t xml:space="preserve">VarioPak </t>
-  </si>
-  <si>
     <t>LC1 CAN PACKER</t>
   </si>
   <si>
@@ -523,9 +521,6 @@
     <t>Keg CIP</t>
   </si>
   <si>
-    <t>Variopak</t>
-  </si>
-  <si>
     <t>Variopak support</t>
   </si>
   <si>
@@ -767,6 +762,9 @@
   </si>
   <si>
     <t>D McKenzie Sun</t>
+  </si>
+  <si>
+    <t>VarioPak</t>
   </si>
 </sst>
 </file>
@@ -1842,28 +1840,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>22</v>
@@ -1878,7 +1876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1886,7 +1884,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1898,10 +1896,10 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1920,10 +1918,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1942,10 +1940,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1964,10 +1962,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -1986,10 +1984,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2008,10 +2006,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2030,10 +2028,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2052,10 +2050,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2074,10 +2072,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2096,10 +2094,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2118,10 +2116,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2140,10 +2138,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2162,10 +2160,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2184,10 +2182,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2206,10 +2204,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2228,10 +2226,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2239,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2250,10 +2248,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2272,10 +2270,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2294,10 +2292,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2316,10 +2314,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2338,10 +2336,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2360,10 +2358,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2382,10 +2380,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2404,13 +2402,13 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2429,10 +2427,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2451,10 +2449,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2473,10 +2471,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2495,10 +2493,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2517,10 +2515,10 @@
         <v>Mon / 7p-11p</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2539,10 +2537,10 @@
         <v>Sun / 11a-3p</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2559,23 +2557,23 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="103.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="103.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2586,13 +2584,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -2604,12 +2602,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -2621,7 +2619,7 @@
         <v>1234567</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C2,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C2,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2632,15 +2630,15 @@
         <v>Sat / 3a-7a</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -2663,10 +2661,10 @@
         <v>Sat / 3p-7p</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2692,12 +2690,12 @@
         <v>Sun / 3a-7a</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -2722,9 +2720,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -2749,9 +2747,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -2780,9 +2778,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2808,12 +2806,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -2828,7 +2826,7 @@
         <v>7104444</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2839,12 +2837,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -2859,7 +2857,7 @@
         <v>7401166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2870,12 +2868,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -2890,7 +2888,7 @@
         <v>7096593</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C11,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C11,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2901,12 +2899,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -2921,7 +2919,7 @@
         <v>7095864</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C12,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C12,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2932,12 +2930,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -2952,7 +2950,7 @@
         <v>7097996</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C13,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C13,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2963,12 +2961,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -2983,7 +2981,7 @@
         <v>7093500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C14,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C14,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2994,12 +2992,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -3014,7 +3012,7 @@
         <v>7400330</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C15,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C15,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3025,12 +3023,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -3045,7 +3043,7 @@
         <v>7096286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C16,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C16,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3056,12 +3054,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -3076,7 +3074,7 @@
         <v>7401878</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C17,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C17,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3087,12 +3085,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -3107,7 +3105,7 @@
         <v>7095136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C18,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C18,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3118,12 +3116,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -3138,7 +3136,7 @@
         <v>7094183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C19,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C19,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3149,12 +3147,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -3169,7 +3167,7 @@
         <v>7077415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C20,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C20,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3180,12 +3178,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -3200,7 +3198,7 @@
         <v>7090966</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C21,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C21,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3211,12 +3209,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -3231,7 +3229,7 @@
         <v>7403058</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3242,12 +3240,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -3262,7 +3260,7 @@
         <v>7077878</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C23,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C23,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3273,12 +3271,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -3293,7 +3291,7 @@
         <v>7099948</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C24,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C24,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3304,12 +3302,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -3324,7 +3322,7 @@
         <v>7403656</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C25,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C25,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3335,12 +3333,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -3355,7 +3353,7 @@
         <v>7104560</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C26,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C26,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3366,12 +3364,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -3386,7 +3384,7 @@
         <v>7403267</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C27,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C27,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3397,12 +3395,12 @@
         <v>Sat / 7a-11a</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -3428,12 +3426,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -3459,12 +3457,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -3479,7 +3477,7 @@
         <v>7104444</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3490,12 +3488,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -3510,7 +3508,7 @@
         <v>7401166</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3521,12 +3519,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -3541,7 +3539,7 @@
         <v>7096593</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3552,12 +3550,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -3572,7 +3570,7 @@
         <v>7095864</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3583,12 +3581,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -3603,7 +3601,7 @@
         <v>7097996</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3614,12 +3612,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -3634,7 +3632,7 @@
         <v>7093500</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3645,12 +3643,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -3665,7 +3663,7 @@
         <v>7400330</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3676,12 +3674,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -3696,7 +3694,7 @@
         <v>7096286</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3707,12 +3705,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -3727,7 +3725,7 @@
         <v>7401878</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3738,12 +3736,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -3758,7 +3756,7 @@
         <v>7095136</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3769,12 +3767,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -3789,7 +3787,7 @@
         <v>7094183</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3800,12 +3798,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -3820,7 +3818,7 @@
         <v>7077415</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3831,12 +3829,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -3851,7 +3849,7 @@
         <v>7090966</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3862,12 +3860,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -3882,7 +3880,7 @@
         <v>7403058</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3893,12 +3891,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -3913,7 +3911,7 @@
         <v>7077878</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3924,12 +3922,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -3944,7 +3942,7 @@
         <v>7099948</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3955,12 +3953,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -3975,7 +3973,7 @@
         <v>7403656</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3986,12 +3984,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
@@ -4006,7 +4004,7 @@
         <v>7104560</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4017,12 +4015,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -4037,7 +4035,7 @@
         <v>7403267</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4048,12 +4046,12 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -4079,12 +4077,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -4110,12 +4108,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
@@ -4130,7 +4128,7 @@
         <v>7104178</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4141,12 +4139,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -4161,7 +4159,7 @@
         <v>7096844</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4172,12 +4170,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
@@ -4192,7 +4190,7 @@
         <v>7401165</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4203,12 +4201,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
@@ -4223,7 +4221,7 @@
         <v>7401949</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4234,12 +4232,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
@@ -4254,7 +4252,7 @@
         <v>7401950</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4265,12 +4263,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -4285,7 +4283,7 @@
         <v>7095749</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4296,12 +4294,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4</v>
@@ -4327,12 +4325,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
@@ -4347,7 +4345,7 @@
         <v>7402915</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4358,12 +4356,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
@@ -4378,7 +4376,7 @@
         <v>7051907</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4389,12 +4387,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
@@ -4409,7 +4407,7 @@
         <v>7400976</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4420,12 +4418,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -4440,7 +4438,7 @@
         <v>7400954</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G61" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4451,12 +4449,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -4471,7 +4469,7 @@
         <v>7051890</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4482,12 +4480,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -4502,7 +4500,7 @@
         <v>7051891</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G63" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4513,12 +4511,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
@@ -4533,7 +4531,7 @@
         <v>7403004</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G64" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4544,12 +4542,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
@@ -4564,7 +4562,7 @@
         <v>7095152</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4575,12 +4573,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
@@ -4595,7 +4593,7 @@
         <v>7095156</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4606,12 +4604,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
@@ -4626,7 +4624,7 @@
         <v>7051908</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4637,12 +4635,12 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -4668,12 +4666,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
@@ -4699,12 +4697,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
@@ -4719,7 +4717,7 @@
         <v>7104178</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G70" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4730,12 +4728,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
@@ -4750,7 +4748,7 @@
         <v>7096844</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G71" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4761,12 +4759,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -4781,7 +4779,7 @@
         <v>7401165</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G72" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4792,12 +4790,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -4812,7 +4810,7 @@
         <v>7401949</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G73" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4823,12 +4821,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -4843,7 +4841,7 @@
         <v>7401950</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4854,12 +4852,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
@@ -4874,7 +4872,7 @@
         <v>7095749</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4885,12 +4883,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -4916,12 +4914,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
@@ -4936,7 +4934,7 @@
         <v>7402915</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4947,12 +4945,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -4967,7 +4965,7 @@
         <v>7051907</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G78" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4978,12 +4976,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4</v>
@@ -4998,7 +4996,7 @@
         <v>7400976</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G79" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5009,12 +5007,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
@@ -5029,7 +5027,7 @@
         <v>7400954</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G80" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5040,12 +5038,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4</v>
@@ -5060,7 +5058,7 @@
         <v>7051890</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G81" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5071,12 +5069,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>4</v>
@@ -5091,7 +5089,7 @@
         <v>7051891</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G82" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5102,12 +5100,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4</v>
@@ -5122,7 +5120,7 @@
         <v>7403004</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G83" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5133,12 +5131,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
@@ -5153,7 +5151,7 @@
         <v>7095152</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G84" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5164,12 +5162,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -5184,7 +5182,7 @@
         <v>7095156</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5195,12 +5193,12 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4</v>
@@ -5215,7 +5213,7 @@
         <v>7051908</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G86" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5226,7 +5224,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5247,12 +5245,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5296,7 +5294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5329,7 +5327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5340,7 +5338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5373,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5395,7 +5393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5406,7 +5404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5439,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5494,7 +5492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5516,7 +5514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5540,17 +5538,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27494956-B098-494C-8CA2-BB2D03266D8E}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5568,9 +5566,9 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>32</v>
@@ -5578,7 +5576,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5588,9 +5586,9 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>32</v>
@@ -5598,9 +5596,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>32</v>
@@ -5608,9 +5606,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>32</v>
@@ -5618,9 +5616,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>48</v>
@@ -5628,9 +5626,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>34</v>
@@ -5638,7 +5636,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5648,9 +5646,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>32</v>
@@ -5658,9 +5656,9 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>35</v>
@@ -5668,9 +5666,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>36</v>
@@ -5678,9 +5676,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>37</v>
@@ -5688,9 +5686,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -5698,9 +5696,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -5708,9 +5706,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>39</v>
@@ -5718,7 +5716,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5728,9 +5726,9 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>41</v>
@@ -5738,9 +5736,9 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>42</v>
@@ -5748,7 +5746,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5758,9 +5756,9 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>44</v>
@@ -5768,9 +5766,9 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>45</v>
@@ -5778,9 +5776,9 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>46</v>
@@ -5788,9 +5786,9 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>46</v>
@@ -5798,9 +5796,9 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>47</v>
@@ -5808,9 +5806,9 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>41</v>
@@ -5818,7 +5816,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -5828,9 +5826,9 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>50</v>
@@ -5838,9 +5836,9 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>51</v>
@@ -5848,7 +5846,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
@@ -5858,9 +5856,9 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>53</v>
@@ -5868,9 +5866,9 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>54</v>
@@ -5878,9 +5876,9 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>55</v>
@@ -5888,9 +5886,9 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>56</v>
@@ -5898,9 +5896,9 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>57</v>
@@ -5908,9 +5906,9 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -5918,9 +5916,9 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -5928,172 +5926,172 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="B55" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD5FB2-D27E-4E62-9BDB-DC3C0C6B08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35106977-F142-4D3C-B2D3-573D62664B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35565" yWindow="1695" windowWidth="21600" windowHeight="11235" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="212">
   <si>
     <t>AssnType</t>
   </si>
@@ -569,9 +568,6 @@
     <t>Pouch CMU</t>
   </si>
   <si>
-    <t>Pouch Packer</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -765,6 +761,24 @@
   </si>
   <si>
     <t>VarioPak</t>
+  </si>
+  <si>
+    <t>Pouch Packer1</t>
+  </si>
+  <si>
+    <t>Pouch Packer2</t>
+  </si>
+  <si>
+    <t>Pouch Packer3</t>
+  </si>
+  <si>
+    <t>Pouch Packer4</t>
+  </si>
+  <si>
+    <t>Pouch Packer5</t>
+  </si>
+  <si>
+    <t>Pouch Packer6</t>
   </si>
 </sst>
 </file>
@@ -1565,8 +1579,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B56" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B56" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B61" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B61" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A5250A11-FD2F-47C9-ABD9-9A441218134C}" name="Display_Name" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F2284C7C-D714-44C5-A91E-0A5ADCBD9330}" name="Train_Mtx_Name" dataDxfId="0"/>
@@ -1844,16 +1858,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1899,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1921,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1943,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1965,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1987,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2075,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2185,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2207,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2383,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2408,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2430,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2452,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2474,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2496,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -2560,20 +2574,20 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="103.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="103.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2602,12 +2616,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -2630,15 +2644,15 @@
         <v>Sat / 3a-7a</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -2661,10 +2675,10 @@
         <v>Sat / 3p-7p</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2690,10 +2704,10 @@
         <v>Sun / 3a-7a</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2747,7 +2761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2840,7 +2854,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2933,7 +2947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2964,7 +2978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2995,7 +3009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3057,7 +3071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3150,7 +3164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3181,7 +3195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3212,7 +3226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3243,7 +3257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3336,7 +3350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -3367,7 +3381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -3398,7 +3412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -3426,10 +3440,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -3457,10 +3471,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3488,10 +3502,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -3519,10 +3533,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -3550,10 +3564,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -3581,10 +3595,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -3612,10 +3626,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3643,10 +3657,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -3674,10 +3688,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3705,10 +3719,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3736,10 +3750,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3767,10 +3781,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3798,10 +3812,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3829,10 +3843,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3860,10 +3874,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3891,10 +3905,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3922,10 +3936,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3953,10 +3967,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3984,10 +3998,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -4015,10 +4029,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -4046,10 +4060,10 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -4077,10 +4091,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -4108,10 +4122,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -4139,10 +4153,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -4170,10 +4184,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -4201,10 +4215,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -4232,10 +4246,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -4263,10 +4277,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4294,10 +4308,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4325,10 +4339,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4356,10 +4370,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -4387,10 +4401,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4418,10 +4432,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4449,10 +4463,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -4480,10 +4494,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4511,10 +4525,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -4542,10 +4556,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4573,10 +4587,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4604,10 +4618,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4635,10 +4649,10 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -4666,10 +4680,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4697,10 +4711,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4728,10 +4742,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4759,10 +4773,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4790,10 +4804,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4821,10 +4835,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -4852,10 +4866,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -4883,10 +4897,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -4914,10 +4928,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -4945,10 +4959,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -4976,10 +4990,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -5007,10 +5021,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -5038,10 +5052,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -5069,10 +5083,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -5100,10 +5114,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -5131,10 +5145,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5162,10 +5176,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -5193,10 +5207,10 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -5224,7 +5238,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5245,12 +5259,12 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5261,7 +5275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5272,7 +5286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5283,7 +5297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5294,7 +5308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5305,7 +5319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5316,7 +5330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5338,7 +5352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5349,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5371,7 +5385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5382,7 +5396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5393,7 +5407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5404,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5415,7 +5429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5426,7 +5440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5437,7 +5451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5448,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5459,7 +5473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5470,7 +5484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5481,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5492,7 +5506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5503,7 +5517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5514,7 +5528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5536,19 +5550,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27494956-B098-494C-8CA2-BB2D03266D8E}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5580,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5576,7 +5590,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5586,7 +5600,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -5596,7 +5610,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -5606,7 +5620,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -5616,7 +5630,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -5626,7 +5640,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -5636,7 +5650,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5646,7 +5660,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -5656,7 +5670,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
@@ -5666,7 +5680,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -5676,7 +5690,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -5686,7 +5700,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -5696,7 +5710,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -5706,7 +5720,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5716,7 +5730,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5726,7 +5740,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -5736,7 +5750,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -5746,7 +5760,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5756,7 +5770,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -5766,7 +5780,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -5776,7 +5790,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -5786,7 +5800,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -5796,7 +5810,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -5806,7 +5820,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -5816,7 +5830,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -5826,7 +5840,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>132</v>
       </c>
@@ -5836,7 +5850,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -5846,7 +5860,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>52</v>
       </c>
@@ -5856,7 +5870,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -5866,7 +5880,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -5876,7 +5890,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -5886,7 +5900,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -5896,7 +5910,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>106</v>
       </c>
@@ -5906,7 +5920,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>108</v>
       </c>
@@ -5916,7 +5930,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -5926,17 +5940,17 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>128</v>
       </c>
@@ -5946,7 +5960,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>105</v>
       </c>
@@ -5956,7 +5970,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -5966,7 +5980,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>118</v>
       </c>
@@ -5976,7 +5990,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>113</v>
       </c>
@@ -5986,7 +6000,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>129</v>
       </c>
@@ -5996,7 +6010,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>115</v>
       </c>
@@ -6006,7 +6020,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>116</v>
       </c>
@@ -6016,7 +6030,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>64</v>
       </c>
@@ -6026,7 +6040,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>65</v>
       </c>
@@ -6036,7 +6050,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>66</v>
       </c>
@@ -6046,7 +6060,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>67</v>
       </c>
@@ -6054,7 +6068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>138</v>
       </c>
@@ -6062,7 +6076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>123</v>
       </c>
@@ -6070,7 +6084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>139</v>
       </c>
@@ -6078,7 +6092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>140</v>
       </c>
@@ -6086,15 +6100,56 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Wknd_Sched_Builder/AssignmentList.xlsx
+++ b/Wknd_Sched_Builder/AssignmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35106977-F142-4D3C-B2D3-573D62664B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0344C-D18A-4E2D-85F7-E1E5B79EE0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35565" yWindow="1695" windowWidth="21600" windowHeight="11235" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1092" windowWidth="21624" windowHeight="11244" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="223">
   <si>
     <t>AssnType</t>
   </si>
@@ -517,9 +517,6 @@
     <t>Keg Line</t>
   </si>
   <si>
-    <t>Keg CIP</t>
-  </si>
-  <si>
     <t>Variopak support</t>
   </si>
   <si>
@@ -779,6 +776,42 @@
   </si>
   <si>
     <t>Pouch Packer6</t>
+  </si>
+  <si>
+    <t>Bott Supp Ht Rlf 1</t>
+  </si>
+  <si>
+    <t>Bott Supp Ht Rlf 2</t>
+  </si>
+  <si>
+    <t>Filler Sweep 1</t>
+  </si>
+  <si>
+    <t>Filler Sweep 2</t>
+  </si>
+  <si>
+    <t>Carton Aid 1</t>
+  </si>
+  <si>
+    <t>Carton Aid 2</t>
+  </si>
+  <si>
+    <t>Packer Ht Brk</t>
+  </si>
+  <si>
+    <t>Keg</t>
+  </si>
+  <si>
+    <t>E De Veyra Sat</t>
+  </si>
+  <si>
+    <t>E De Veyra Sun</t>
+  </si>
+  <si>
+    <t>Z Cook Sat</t>
+  </si>
+  <si>
+    <t>Z Cook Sun</t>
   </si>
 </sst>
 </file>
@@ -871,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -900,6 +933,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,8 +1562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE372191-17FC-4397-A620-B28088C8812B}" name="All_Slots" displayName="All_Slots" ref="A1:G38" totalsRowShown="0">
+  <autoFilter ref="A1:G38" xr:uid="{059D1060-D207-4B9D-A006-CF0431D6758F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CC27B11-A292-426B-97B6-7130C8C9D4F3}" name="Start Slot"/>
     <tableColumn id="2" xr3:uid="{8A152051-0D61-47D6-BFEC-594E995E4F1D}" name="End Slot"/>
@@ -1545,8 +1582,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}" name="Assn_List" displayName="Assn_List" ref="A1:I86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:I86" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}" name="Assn_List" displayName="Assn_List" ref="A1:I90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:I90" xr:uid="{F6C12A1D-C9D6-49E0-90A8-78F7AE1B2444}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF1A4BE0-533F-4D33-902B-4B0793170CE5}" name="Active?" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{BD0C2663-572B-49CB-B47A-8EBC47F49069}" name="AssnType" dataDxfId="10"/>
@@ -1579,8 +1616,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B61" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B61" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}" name="TrainAssnMtx" displayName="TrainAssnMtx" ref="A1:B68" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B68" xr:uid="{B5394865-9CC8-4FF3-A5B4-D7D7B5491B25}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A5250A11-FD2F-47C9-ABD9-9A441218134C}" name="Display_Name" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F2284C7C-D714-44C5-A91E-0A5ADCBD9330}" name="Train_Mtx_Name" dataDxfId="0"/>
@@ -1852,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,177 +1929,184 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="9" t="str">
+        <v>211</v>
+      </c>
+      <c r="D2" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 3a-7a</v>
-      </c>
-      <c r="E2" s="9" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="E2" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 3a-7a</v>
+        <v>Sat / 7p-11p</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="str">
+        <v>212</v>
+      </c>
+      <c r="D3" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E3" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="E3" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="str">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E4" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="E4" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="F4" s="9"/>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="str">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E5" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="E5" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Sat / 7p-11p</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="str">
+        <v>211</v>
+      </c>
+      <c r="D6" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E6" t="str">
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="E6" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Mon / 11p(Sun)-3a(Mon)</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="str">
+        <v>212</v>
+      </c>
+      <c r="D7" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E7" t="str">
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="E7" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Mon / 11p(Sun)-3a(Mon)</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="str">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E8" t="str">
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="E8" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Mon / 11p(Sun)-3a(Mon)</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="str">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Fri / 11p(Thurs)-3a(Fri)</v>
-      </c>
-      <c r="E9" t="str">
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="E9" s="14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Mon / 7p-11p</v>
-      </c>
+        <v>Mon / 11p(Sun)-3a(Mon)</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9">
         <v>1</v>
       </c>
@@ -2075,7 +2119,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2097,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2119,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2141,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D13" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2163,7 +2207,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D14" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2185,7 +2229,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D15" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2207,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2229,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2251,7 +2295,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2273,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D19" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2294,8 +2338,8 @@
       <c r="B20">
         <v>24</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>106</v>
+      <c r="C20" t="s">
+        <v>83</v>
       </c>
       <c r="D20" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2316,8 +2360,8 @@
       <c r="B21">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>108</v>
+      <c r="C21" t="s">
+        <v>49</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2338,8 +2382,8 @@
       <c r="B22">
         <v>24</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>111</v>
+      <c r="C22" t="s">
+        <v>84</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2360,8 +2404,8 @@
       <c r="B23">
         <v>24</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>128</v>
+      <c r="C23" t="s">
+        <v>81</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2382,8 +2426,8 @@
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>105</v>
+      <c r="C24" t="s">
+        <v>82</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2405,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2415,9 +2459,6 @@
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Mon / 7p-11p</v>
       </c>
-      <c r="F25" t="s">
-        <v>125</v>
-      </c>
       <c r="G25">
         <v>1</v>
       </c>
@@ -2429,8 +2470,8 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>118</v>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2452,7 +2493,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2474,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D28" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2496,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D29" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2518,7 +2559,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D30" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2534,30 +2575,188 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="F31" t="s">
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="F32" t="s">
         <v>124</v>
       </c>
-      <c r="G31">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E33" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E34" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E35" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E36" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Fri / 11p(Thurs)-3a(Fri)</v>
+      </c>
+      <c r="E37" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Mon / 7p-11p</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[Start Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="E38" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(All_Slots[[#This Row],[End Slot]],[1]Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7p-11p</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2568,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2621,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -2644,7 +2843,7 @@
         <v>Sat / 3a-7a</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2652,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -2675,7 +2874,7 @@
         <v>Sat / 3p-7p</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2704,7 +2903,7 @@
         <v>Sun / 3a-7a</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2840,7 +3039,7 @@
         <v>7104444</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C9,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -2871,7 +3070,7 @@
         <v>7401166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C10,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3243,7 +3442,7 @@
         <v>7403058</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C22,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3420,27 +3619,27 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2">
-        <v>7402632</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2" t="str">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7104857</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C28,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C28,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11p(Sat)-3a(Sun)</v>
-      </c>
-      <c r="H28" s="2" t="str">
+        <v>Sat / 11p(Fri)-3a(Sat)</v>
+      </c>
+      <c r="H28" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D28,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D28,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7a-11a</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>Sat / 7a-11a</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3457,10 +3656,10 @@
         <v>15</v>
       </c>
       <c r="E29" s="2">
-        <v>7400336</v>
+        <v>7402632</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C29,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C29,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3471,7 +3670,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3487,11 +3686,11 @@
       <c r="D30" s="2">
         <v>15</v>
       </c>
-      <c r="E30" s="7">
-        <v>7104444</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>126</v>
+      <c r="E30" s="2">
+        <v>7400336</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C30,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3501,8 +3700,8 @@
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D30,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D30,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 7a-11a</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>148</v>
+      <c r="I30" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3519,10 +3718,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="7">
-        <v>7401166</v>
+        <v>7104444</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C31,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3533,7 +3732,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3550,10 +3749,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="7">
-        <v>7096593</v>
+        <v>7401166</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="G32" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C32,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3564,7 +3763,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3581,10 +3780,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="7">
-        <v>7095864</v>
+        <v>7096593</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C33,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3595,7 +3794,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3612,10 +3811,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="7">
-        <v>7097996</v>
+        <v>7095864</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C34,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3626,7 +3825,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3643,21 +3842,21 @@
         <v>15</v>
       </c>
       <c r="E35" s="7">
-        <v>7093500</v>
+        <v>7097996</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="7" t="str">
+        <v>76</v>
+      </c>
+      <c r="G35" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C35,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11p(Sat)-3a(Sun)</v>
       </c>
-      <c r="H35" s="7" t="str">
+      <c r="H35" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D35,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D35,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3674,10 +3873,10 @@
         <v>15</v>
       </c>
       <c r="E36" s="7">
-        <v>7400330</v>
+        <v>7093500</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C36,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3688,7 +3887,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3705,10 +3904,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="7">
-        <v>7096286</v>
+        <v>7400330</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C37,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3719,7 +3918,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3736,10 +3935,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="7">
-        <v>7401878</v>
+        <v>7096286</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C38,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3750,7 +3949,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3767,10 +3966,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="7">
-        <v>7095136</v>
+        <v>7401878</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C39,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3781,7 +3980,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3798,10 +3997,10 @@
         <v>15</v>
       </c>
       <c r="E40" s="7">
-        <v>7094183</v>
+        <v>7095136</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C40,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3812,7 +4011,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3829,10 +4028,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="7">
-        <v>7077415</v>
+        <v>7094183</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C41,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3843,7 +4042,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3860,10 +4059,10 @@
         <v>15</v>
       </c>
       <c r="E42" s="7">
-        <v>7090966</v>
+        <v>7077415</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C42,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3874,7 +4073,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3890,11 +4089,11 @@
       <c r="D43" s="2">
         <v>15</v>
       </c>
-      <c r="E43" s="13">
-        <v>7403058</v>
+      <c r="E43" s="7">
+        <v>7090966</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C43,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3905,7 +4104,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3921,11 +4120,11 @@
       <c r="D44" s="2">
         <v>15</v>
       </c>
-      <c r="E44" s="7">
-        <v>7077878</v>
+      <c r="E44" s="13">
+        <v>7403058</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C44,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3936,7 +4135,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3953,10 +4152,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="7">
-        <v>7099948</v>
+        <v>7077878</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C45,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3967,7 +4166,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3984,10 +4183,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="7">
-        <v>7403656</v>
+        <v>7099948</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C46,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -3998,7 +4197,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4015,10 +4214,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="7">
-        <v>7104560</v>
+        <v>7403656</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C47,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4029,7 +4228,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4046,10 +4245,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="7">
-        <v>7403267</v>
+        <v>7104560</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C48,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4060,7 +4259,7 @@
         <v>Sun / 7a-11a</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4071,27 +4270,27 @@
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2">
-        <v>7403368</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="2" t="str">
+        <v>15</v>
+      </c>
+      <c r="E49" s="7">
+        <v>7403267</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C49,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C49,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11a-3p</v>
-      </c>
-      <c r="H49" s="2" t="str">
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H49" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D49,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D49,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 7p-11p</v>
+        <v>Sun / 7a-11a</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4102,27 +4301,27 @@
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2">
-        <v>7403455</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="2" t="str">
+        <v>15</v>
+      </c>
+      <c r="E50" s="7">
+        <v>7104857</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C50,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C50,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 11a-3p</v>
-      </c>
-      <c r="H50" s="2" t="str">
+        <v>Sun / 11p(Sat)-3a(Sun)</v>
+      </c>
+      <c r="H50" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D50,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D50,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sat / 7p-11p</v>
+        <v>Sun / 7a-11a</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4138,11 +4337,11 @@
       <c r="D51" s="2">
         <v>12</v>
       </c>
-      <c r="E51" s="7">
-        <v>7104178</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>126</v>
+      <c r="E51" s="2">
+        <v>7403368</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G51" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C51,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4153,7 +4352,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4169,11 +4368,11 @@
       <c r="D52" s="2">
         <v>12</v>
       </c>
-      <c r="E52" s="7">
-        <v>7096844</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>127</v>
+      <c r="E52" s="2">
+        <v>7403455</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G52" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C52,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4184,7 +4383,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4201,10 +4400,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="7">
-        <v>7401165</v>
+        <v>7104178</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G53" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C53,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4215,7 +4414,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4232,10 +4431,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="7">
-        <v>7401949</v>
+        <v>7096844</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="G54" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C54,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4246,7 +4445,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4263,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="7">
-        <v>7401950</v>
+        <v>7401165</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C55,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4277,7 +4476,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4294,21 +4493,21 @@
         <v>12</v>
       </c>
       <c r="E56" s="7">
-        <v>7095749</v>
+        <v>7401949</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="7" t="str">
+        <v>75</v>
+      </c>
+      <c r="G56" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C56,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 11a-3p</v>
       </c>
-      <c r="H56" s="7" t="str">
+      <c r="H56" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D56,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D56,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4325,21 +4524,21 @@
         <v>12</v>
       </c>
       <c r="E57" s="7">
-        <v>7091824</v>
-      </c>
-      <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="7" t="str">
+        <v>7401950</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C57,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C57,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 11a-3p</v>
       </c>
-      <c r="H57" s="7" t="str">
+      <c r="H57" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D57,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D57,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4356,10 +4555,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="7">
-        <v>7402915</v>
+        <v>7095749</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G58" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C58,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4370,7 +4569,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4387,10 +4586,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="7">
-        <v>7051907</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>7091824</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
       </c>
       <c r="G59" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C59,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4401,7 +4600,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4418,10 +4617,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="7">
-        <v>7400976</v>
+        <v>7402915</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C60,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4432,7 +4631,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4449,10 +4648,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="7">
-        <v>7400954</v>
+        <v>7051907</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G61" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C61,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4463,7 +4662,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4480,10 +4679,10 @@
         <v>12</v>
       </c>
       <c r="E62" s="7">
-        <v>7051890</v>
+        <v>7400976</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G62" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C62,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4494,7 +4693,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4511,10 +4710,10 @@
         <v>12</v>
       </c>
       <c r="E63" s="7">
-        <v>7051891</v>
+        <v>7400954</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G63" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C63,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4525,7 +4724,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4542,10 +4741,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="7">
-        <v>7403004</v>
+        <v>7051890</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="G64" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C64,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4556,7 +4755,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4573,10 +4772,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="7">
-        <v>7095152</v>
+        <v>7051891</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G65" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C65,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4587,7 +4786,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4604,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="E66" s="7">
-        <v>7095156</v>
+        <v>7403004</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G66" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C66,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4618,7 +4817,7 @@
         <v>Sat / 7p-11p</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4635,10 +4834,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="7">
-        <v>7051908</v>
+        <v>7095152</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G67" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C67,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4660,27 +4859,27 @@
         <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
-        <v>18</v>
-      </c>
-      <c r="E68" s="2">
-        <v>7403368</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="E68" s="7">
+        <v>7095156</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="H68" s="2" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H68" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D68,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7p-11p</v>
+        <v>Sat / 7p-11p</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4691,27 +4890,27 @@
         <v>4</v>
       </c>
       <c r="C69" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2">
-        <v>7403455</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="2" t="str">
+        <v>12</v>
+      </c>
+      <c r="E69" s="7">
+        <v>7051908</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="H69" s="2" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H69" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D69,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7p-11p</v>
+        <v>Sat / 7p-11p</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4722,27 +4921,27 @@
         <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E70" s="7">
-        <v>7104178</v>
+        <v>7104754</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="2" t="str">
+        <v>84</v>
+      </c>
+      <c r="G70" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 11a-3p</v>
-      </c>
-      <c r="H70" s="2" t="str">
+        <v>Sat / 11a-3p</v>
+      </c>
+      <c r="H70" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D70,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
-        <v>Sun / 7p-11p</v>
+        <v>Sat / 7p-11p</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4758,11 +4957,11 @@
       <c r="D71" s="2">
         <v>18</v>
       </c>
-      <c r="E71" s="7">
-        <v>7096844</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>127</v>
+      <c r="E71" s="2">
+        <v>7403368</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G71" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C71,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4773,7 +4972,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4789,11 +4988,11 @@
       <c r="D72" s="2">
         <v>18</v>
       </c>
-      <c r="E72" s="7">
-        <v>7401165</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>74</v>
+      <c r="E72" s="2">
+        <v>7403455</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G72" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C72,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4804,7 +5003,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4821,10 +5020,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="7">
-        <v>7401949</v>
+        <v>7104178</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G73" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C73,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4835,7 +5034,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4852,10 +5051,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="7">
-        <v>7401950</v>
+        <v>7096844</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G74" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C74,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4866,7 +5065,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4883,21 +5082,21 @@
         <v>18</v>
       </c>
       <c r="E75" s="7">
-        <v>7095749</v>
+        <v>7401165</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" s="7" t="str">
+        <v>74</v>
+      </c>
+      <c r="G75" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11a-3p</v>
       </c>
-      <c r="H75" s="7" t="str">
+      <c r="H75" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D75,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4914,21 +5113,21 @@
         <v>18</v>
       </c>
       <c r="E76" s="7">
-        <v>7091824</v>
+        <v>7401949</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G76" s="7" t="str">
+        <v>75</v>
+      </c>
+      <c r="G76" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11a-3p</v>
       </c>
-      <c r="H76" s="7" t="str">
+      <c r="H76" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D76,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4945,21 +5144,21 @@
         <v>18</v>
       </c>
       <c r="E77" s="7">
-        <v>7402915</v>
+        <v>7401950</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="7" t="str">
+        <v>76</v>
+      </c>
+      <c r="G77" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 11a-3p</v>
       </c>
-      <c r="H77" s="7" t="str">
+      <c r="H77" s="2" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D77,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4976,10 +5175,10 @@
         <v>18</v>
       </c>
       <c r="E78" s="7">
-        <v>7051907</v>
+        <v>7095749</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G78" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C78,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -4990,7 +5189,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5007,10 +5206,10 @@
         <v>18</v>
       </c>
       <c r="E79" s="7">
-        <v>7400976</v>
+        <v>7091824</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G79" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C79,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5021,7 +5220,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5038,10 +5237,10 @@
         <v>18</v>
       </c>
       <c r="E80" s="7">
-        <v>7400954</v>
+        <v>7402915</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G80" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C80,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5052,7 +5251,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5069,10 +5268,10 @@
         <v>18</v>
       </c>
       <c r="E81" s="7">
-        <v>7051890</v>
+        <v>7051907</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G81" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C81,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5083,7 +5282,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5100,10 +5299,10 @@
         <v>18</v>
       </c>
       <c r="E82" s="7">
-        <v>7051891</v>
+        <v>7400976</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G82" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C82,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5114,7 +5313,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5130,11 +5329,11 @@
       <c r="D83" s="2">
         <v>18</v>
       </c>
-      <c r="E83" s="13">
-        <v>7403004</v>
+      <c r="E83" s="7">
+        <v>7400954</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G83" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C83,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5145,7 +5344,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5162,10 +5361,10 @@
         <v>18</v>
       </c>
       <c r="E84" s="7">
-        <v>7095152</v>
+        <v>7051890</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G84" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C84,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5176,7 +5375,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5193,10 +5392,10 @@
         <v>18</v>
       </c>
       <c r="E85" s="7">
-        <v>7095156</v>
+        <v>7051891</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G85" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C85,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5207,7 +5406,7 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5223,11 +5422,11 @@
       <c r="D86" s="2">
         <v>18</v>
       </c>
-      <c r="E86" s="7">
-        <v>7051908</v>
+      <c r="E86" s="13">
+        <v>7403004</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G86" s="7" t="str">
         <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C86,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
@@ -5238,7 +5437,131 @@
         <v>Sun / 7p-11p</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2">
+        <v>18</v>
+      </c>
+      <c r="E87" s="7">
+        <v>7095152</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C87,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C87,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="H87" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D87,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D87,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7p-11p</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2">
+        <v>18</v>
+      </c>
+      <c r="E88" s="7">
+        <v>7095156</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C88,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C88,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="H88" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D88,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D88,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7p-11p</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2">
+        <v>18</v>
+      </c>
+      <c r="E89" s="7">
+        <v>7051908</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C89,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C89,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="H89" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D89,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D89,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7p-11p</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="2">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2">
+        <v>18</v>
+      </c>
+      <c r="E90" s="7">
+        <v>7104754</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!C90,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!C90,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 11a-3p</v>
+      </c>
+      <c r="H90" s="7" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Assignment_List!D90,Slot_Legend!$A$2:$C$25,2,FALSE)," / ", VLOOKUP(Assignment_List!D90,Slot_Legend!$A$2:$C$25,3,FALSE))</f>
+        <v>Sun / 7p-11p</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5550,10 +5873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27494956-B098-494C-8CA2-BB2D03266D8E}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5602,7 +5925,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>32</v>
@@ -5612,7 +5935,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>32</v>
@@ -5692,7 +6015,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>37</v>
@@ -5722,7 +6045,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>39</v>
@@ -5842,7 +6165,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>50</v>
@@ -5872,7 +6195,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>53</v>
@@ -5882,7 +6205,7 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>54</v>
@@ -5892,7 +6215,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>55</v>
@@ -5902,7 +6225,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>56</v>
@@ -5942,17 +6265,17 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>59</v>
@@ -5972,7 +6295,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>61</v>
@@ -6002,7 +6325,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>63</v>
@@ -6070,7 +6393,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>68</v>
@@ -6086,7 +6409,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>70</v>
@@ -6094,7 +6417,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>71</v>
@@ -6102,7 +6425,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>72</v>
@@ -6110,7 +6433,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>72</v>
@@ -6118,7 +6441,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>72</v>
@@ -6126,7 +6449,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>72</v>
@@ -6134,7 +6457,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>72</v>
@@ -6142,10 +6465,66 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
